--- a/test/templates/test-move-images.xlsx
+++ b/test/templates/test-move-images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\surveaexcel\NEWER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006160D-BC9D-413A-A98E-B174F569E398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5341987-11EB-458F-BD63-0431EB76AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>${table:users.name}</t>
-  </si>
-  <si>
-    <t>${table:users.surname}</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 : </t>
   </si>
   <si>
@@ -43,6 +37,12 @@
   </si>
   <si>
     <t>4:</t>
+  </si>
+  <si>
+    <t>{table:users.name}</t>
+  </si>
+  <si>
+    <t>{table:users.surname}</t>
   </si>
 </sst>
 </file>
@@ -577,35 +577,35 @@
   <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
